--- a/レビュー表.xlsx
+++ b/レビュー表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\kanjitest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008CF9F9-FF2F-474A-BCFA-31572DB8A66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA40722-8C96-48A4-9E1A-52ACFD3E91F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -239,6 +239,80 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配布</t>
+    <rPh sb="0" eb="2">
+      <t>ハイフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与えたAmazon Linux サーバーへソフトウェアを配布してみること。マニュアルも作成し、提出すること。</t>
+    <rPh sb="0" eb="1">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル(システム構築マニュアル.xlsx)を作成しました。ソフトウェア配布を成功しました。</t>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加要件</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者機能を追加すること。管理者は名前と生年月日でログインすることができる。また、管理者はサーバーに生成されたエクセルファイルを確認、ダウンロードができる。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -304,34 +378,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,157 +678,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C8" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1"/>
-    <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.625" style="4"/>
+    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="4"/>
+    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>45460</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>45462</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="37.5">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>45460</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="37.5">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>45460</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>45462</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>45460</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>45462</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>45460</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>45462</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" ht="56.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45477</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45478</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
